--- a/spreadsheet/macrofree/azure_arc_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/azure_arc_checklist.pt.xlsx
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Uma estratégia de marcação para servidores habilitados para o Azure Arc foi definida</t>
+          <t>Uma estratégia de marcação para servidores habilitados para Arco do Azure foi definida</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recomenda-se alinhar com um startegy de marcação existente ou criar um Azure. As tags de recursos permitem localizá-lo rapidamente, automatizar tarefas operacionais e muito mais. </t>
+          <t xml:space="preserve">Recomenda-se alinhar com uma estratégia de marcação existente ou criar uma estratégia de marcação do Azure. As tags de recursos permitem localizá-lo rapidamente, automatizar tarefas operacionais e muito mais. </t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1688,12 +1688,12 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use o princípio de menos privilegiado</t>
+          <t>Use o princípio dos menos privilegiados</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de adicionar apenas os direitos a usuários ou grupos necessários para realizar sua função</t>
+          <t>Certifique-se de adicionar apenas os direitos a usuários ou grupos necessários para desempenhar sua função</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Quantos Princípios de Serviço são necessários para integrar servidores habilitados para Arc no Azure</t>
+          <t>Quantas Entidades de Serviço são necessárias para integrar servidores habilitados para Arc no Azure</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Definir um stretegy para provisionamento de agente</t>
+          <t>Definir uma estratégia para o provisionamento de agentes</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Definir um estrato para atualizações de agente</t>
+          <t>Definir uma estratégia para atualizações de agente</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Use atualizações automáticas quando disponíveis e defina uma estratégia de atualização para todas as extensões que não oferecem suporte a atualizações automáticas.</t>
+          <t>Use atualizações automáticas, quando disponíveis, e defina uma estratégia de atualização para todas as extensões que não oferecem suporte a atualizações automáticas.</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Por padrão, o Connected Machine Agent se comunicará com os serviços do Azure por meio da conectividade pública Interet usando HTTPS (porta TCP 443)</t>
+          <t>Por padrão, o Connected Machine Agent se comunicará com os serviços do Azure por meio de conectividade pública com a Internet usando HTTPS (porta TCP 443)</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2563,12 +2563,12 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>As regras de Firewall ou Proxy podem ser atualizadas automaticamente se as Etiquetas de Serviço ou endereços IP forem alterados</t>
+          <t>As regras de Firewall ou Proxy podem ser atualizadas automaticamente se as Marcas de Serviço ou os endereços IP forem alterados</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>Use a ferramenta de automação disponível para o sistema em questão para atualizar requamente os pontos de extremidade do Azure</t>
+          <t>Use a ferramenta de automação disponível para o sistema em questão para atualizar regularmente os pontos de extremidade do Azure</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>Todas as extensões (como análise de logs, etc.) têm requisitos de rede separados, certifique-se de incluir todos no design da rede.</t>
+          <t>Todas as extensões (como análise de logs, etc.) têm requisitos de rede separados, certifique-se de incluir todas no design da rede.</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para implementar um modelo de governo para servidores conectados híbridos</t>
+          <t>Usar a Política do Azure para implementar um modelo de governança para servidores conectados híbridos</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Cosider usando o controle de alterações para controlar as alterações feitas nos servidores</t>
+          <t>Considere o uso do controle de alterações para controlar as alterações feitas nos servidores</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>Os membros do grupo de administradores locais no Windows e os usuários com privilégios de root no Linux têm permissões para gerenciar o agente via linha de comando.</t>
+          <t>Os membros do grupo de administradores locais no Windows e os usuários com privilégios de root no Linux têm permissões para gerenciar o agente por meio da linha de comando.</t>
         </is>
       </c>
       <c r="E50" s="21" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Securtiy •</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">

--- a/spreadsheet/macrofree/azure_arc_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/azure_arc_checklist.pt.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1104,12 +1069,12 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Um ou mais grupos de recursos são necessários para integrar servidores no Azure</t>
+          <t>Um ou mais grupos de recursos são necessários para integrar servidores ao Azure</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>Definir uma estrutura de grupo de recursos para posicionamento de recursos de servidores habilitados para Arco do Azure</t>
+          <t>Definir uma estrutura de grupo de recursos para posicionamento de recursos de servidores habilitados para Azure Arc</t>
         </is>
       </c>
       <c r="E8" s="21" t="inlineStr">
@@ -1150,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Leve em conta as limitações de objeto do Active Directory do Azure</t>
+          <t>Leve em conta as limitações de objeto do Azure Active Directory</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1246,12 +1211,12 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Uma estratégia de marcação para servidores habilitados para Arco do Azure foi definida</t>
+          <t>Foi definida uma estratégia de marcação para servidores habilitados para Azure Arc</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Recomenda-se alinhar com uma estratégia de marcação existente ou criar uma estratégia de marcação do Azure. As tags de recursos permitem localizá-lo rapidamente, automatizar tarefas operacionais e muito mais. </t>
+          <t xml:space="preserve">É recomendável alinhar-se a uma estratégia de marcação existente ou criar uma estratégia de marcação do Azure. As tags de recursos permitem localizá-lo rapidamente, automatizar tarefas operacionais e muito mais. </t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1296,12 +1261,12 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Quais sistemas operacionais precisam ser habilitados para o Azure Arc</t>
+          <t>Quais sistemas operacionais precisam ser habilitados para Azure Arc</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>A instalação do agente de máquina conectada é suportada na maioria dos sistemas operacionais Windows e Linux mais recentes, revise o link para se a lista mais recente</t>
+          <t>A instalação do agente de máquina conectada é suportada na maioria dos sistemas operacionais Windows e Linux mais recentes, revise o link para ver a lista mais recente</t>
         </is>
       </c>
       <c r="E12" s="21" t="inlineStr">
@@ -1351,7 +1316,7 @@
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Há requisitos de software para a instalação do agente. Alguns podem exigir uma reinicialização do sistema após a instalação, revise para vincular</t>
+          <t>Existem requisitos de software para a instalação do agente. Alguns podem exigir uma reinicialização do sistema após a instalação, revise para vincular</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1447,7 +1412,7 @@
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>O escopo inclui organização em grupos de gerenciamento, assinaturas e grupos de recursos.</t>
+          <t>O escopo inclui a organização em grupos de gerenciamento, assinaturas e grupos de recursos.</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1492,12 +1457,12 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Atribuir direitos RBAC ao acesso de usuário/grupo do Azure AD para gerenciar servidores habilitados para Arco do Azure</t>
+          <t>Atribuir direitos RBAC ao acesso de usuário/grupo do Azure AD para gerenciar servidores habilitados para Azure Arc</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Definir regras RBAC para os servidores/grupos de recursos conforme necessário para o gerenciamento de servidores, a função 'Administrador de Recursos de Máquina Conectada do Azure' ou 'Administrador de Recursos de Servidor Híbrido' seria suficiente para o gerenciamento dos recursos de servidores habilitados para Arco do Azure no Azure</t>
+          <t>Defina regras RBAC para os servidores/grupos de recursos conforme necessário para o gerenciamento de servidores, a função 'Administrador de Recursos de Máquina Conectada do Azure' ou 'Administrador de Recursos de Servidor Híbrido' seria suficiente para o gerenciamento dos recursos de servidores habilitados para Azure Arc no Azure</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1542,7 +1507,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de identidades gerenciadas para aplicativos para acessar recursos do Azure, como o exemplo do Cofre da Chave no link</t>
+          <t>Considere o uso de identidades gerenciadas para aplicativos acessarem recursos do Azure, como o exemplo do Key Vault no link</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1588,12 +1553,12 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Um locatário do Active Directory do Azure deve estar disponível com pelo menos uma assinatura</t>
+          <t>Um locatário do Azure Active Directory deve estar disponível com pelo menos uma assinatura</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Uma assinatura do Azure deve ser parente do mesmo locatário do Azure AD</t>
+          <t>Uma assinatura do Azure deve ser pai do mesmo locatário do Azure AD</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1638,12 +1603,12 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Definir quais usuários (usuários/grupos do AAD) têm acesso aos servidores habilitados para Arco do Azure integrados</t>
+          <t>Definir quais usuários (usuários/grupos do AAD) têm acesso a servidores habilitados para Azure Arc integrados</t>
         </is>
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Os usuários (ou SPs) precisam da função 'Azure Connected Machine Onboarding' ou 'Contributor' para a integração de servidores</t>
+          <t>Os usuários (ou SPs) precisam da função 'Azure Connected Machine Onboarding' ou 'Colaborador' para a integração de servidores</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1693,7 +1658,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Certifique-se de adicionar apenas os direitos a usuários ou grupos necessários para desempenhar sua função</t>
+          <t>Certifique-se de adicionar apenas os direitos aos usuários ou grupos necessários para desempenhar sua função</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1738,12 +1703,12 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Quantas Entidades de Serviço são necessárias para integrar servidores habilitados para Arc no Azure</t>
+          <t>Quantas entidades de serviço são necessárias para integrar servidores habilitados para Arc no Azure</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Um princípio de serviço com a função 'Azure Connected Machine Onboarding' é necessário para a integração em escala de servidores, considere mais SPs se a integração for feita por diferentes equipes/gerenciamento descentralizado</t>
+          <t>Um princípio de serviço com a função 'Integração de Máquina Conectada do Azure' é necessário para a integração em escala de servidores, considere mais SPs se a integração for feita por equipes diferentes/gerenciamento descentralizado</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1788,12 +1753,12 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Limitar os direitos de integrar servidores habilitados para o Azure Arc aos grupos de recursos desejados</t>
+          <t>Limitar os direitos de integrar servidores habilitados para Azure Arc aos grupos de recursos desejados</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Considere atribuir os direitos para a função 'Integração de Máquina Conectada do Azure' no nível do grupo de recursos, para controlar a criação de recursos</t>
+          <t>Considere atribuir os direitos para a função 'Integração de Máquinas Conectadas do Azure' no nível do grupo de recursos, para controlar a criação de recursos</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1888,12 +1853,12 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Definir uma estratégia para atualizações de agente</t>
+          <t>Definir uma estratégia para atualizações de agentes</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Use o Microsoft Update para garantir que o agente da máquina conectada esteja sempre atualizado</t>
+          <t>Use o Microsoft Update para garantir que o agente do computador conectado esteja sempre atualizado</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -1938,12 +1903,12 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Definir uma estratégia para a instalação da extensão</t>
+          <t>Definir uma estratégia para instalação de extensão</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>A recomendação é usar a Política do Azure ou outra ferramenta de automação como o Azure DevOps - importante é evitar desvios de configuração.</t>
+          <t>A recomendação é usar o Azure Policy ou outra ferramenta de automação como o Azure DevOps – o importante é evitar o descompasso de configuração.</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1993,7 +1958,7 @@
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Use atualizações automáticas, quando disponíveis, e defina uma estratégia de atualização para todas as extensões que não oferecem suporte a atualizações automáticas.</t>
+          <t>Use atualizações automáticas quando disponíveis e defina uma estratégia de atualização para todas as extensões que não oferecem suporte a atualizações automáticas.</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
@@ -2038,12 +2003,12 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso do Azure Automanage para controlar as configurações e evitar desvios de configuração nos servidores</t>
+          <t>Considere usar a Configuração de Máquina do Azure para controlar as configurações e evitar descompassos de configuração em servidores</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>O Azure Automanage ajuda a implementar as práticas recomendadas da Microsoft para gerenciamento de servidores no Azure</t>
+          <t>Configuração de Máquina do Azure para ajudar a implementar as melhores práticas da Microsoft para gerenciamento de servidores no Azure</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2059,7 +2024,7 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automanage/automanage-arc</t>
+          <t>https://learn.microsoft.com/azure/governance/machine-configuration/overview</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
@@ -2132,7 +2097,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Projetar uma estratégia de monitoramento para enviar métricas e logs para um espaço de trabalho do Log Analytics</t>
+          <t>Criar uma estratégia de monitoramento para enviar métricas e logs para um workspace do Log Analytics</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2177,7 +2142,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Usar notificação nos Logs de atividades para receber notificações sobre alterações inesperadas nos recursos</t>
+          <t>Usar notificação em Logs de atividades para receber notificação sobre alterações inesperadas nos recursos</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2222,7 +2187,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Usar o Azure Monitor para conformidade e monitoramento operacional</t>
+          <t>Usar o Azure Monitor para monitoramento operacional e de conformidade</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2267,7 +2232,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Criar um alerta para identificar servidores habilitados para Arco do Azure que não estão usando a versão mais recente do agente de máquina conectada do Azure</t>
+          <t>Criar um alerta para identificar servidores habilitados para Azure Arc que não estão usando a versão mais recente do agente de computador conectado do Azure</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2313,12 +2278,12 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Usar servidores habilitados para Arco do Azure para controlar implantações de atualizações de software em servidores</t>
+          <t>Usar servidores habilitados para Azure Arc para controlar implantações de atualizações de software em servidores</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Usar o Gerenciamento de Atualizações na Automação do Azure ou a nova funcionalidade do Centro de Gerenciamento de Atualizações (visualização) para garantir o gerenciamento de atualizações dos servidores</t>
+          <t>Use o Azure Update Manager para gerenciar e agendar atualizações em escala em seus servidores habilitados para Azure Arc</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2334,7 +2299,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/hybrid/server/best-practices/arc-update-management</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview%2Cwindows-maintenance</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2368,7 +2333,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>Por padrão, o Connected Machine Agent se comunicará com os serviços do Azure por meio de conectividade pública com a Internet usando HTTPS (porta TCP 443)</t>
+          <t>Por padrão, o Agente de Computador Conectado se comunicará com os serviços do Azure por meio de conectividade pública com a Internet usando HTTPS (porta TCP 443)</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2413,12 +2378,12 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Um servidor proxy é necessário para a comunicação pela Internet Pública</t>
+          <t>Um servidor proxy é necessário para comunicação pela Internet pública</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>O Connected Machine Agent pode ser configurado para usar um servidor proxy, recomenda-se definir o endereço do servidor proxy usando o comando 'azcmagent config set proxy.url' no sistema local.</t>
+          <t>O Connected Machine Agent pode ser configurado para usar um servidor proxy, é recomendável definir o endereço do servidor proxy usando o comando 'azcmagent config set proxy.url' no sistema local.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2463,12 +2428,12 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>É necessária uma conexão privada (não pública com a Internet)?</t>
+          <t>É necessária uma conexão privada (não pública)?</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>O Connected Machine Agent pode usar um Link Privado para comunicação com os Serviços do Azure em uma conexão VPN ou Rota Expressa existente</t>
+          <t>O Agente de Máquina Conectada pode usar um Link Privado para comunicação com os Serviços do Azure por meio de uma conexão VPN ou ExpressRoute existente</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
@@ -2563,7 +2528,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>As regras de Firewall ou Proxy podem ser atualizadas automaticamente se as Marcas de Serviço ou os endereços IP forem alterados</t>
+          <t>As regras de firewall ou proxy podem ser atualizadas automaticamente se as tags de serviço ou endereços IP forem alterados</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
@@ -2618,7 +2583,7 @@
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>Configurar servidores para usar o TLS (Transport Layer Security) versão 1.2</t>
+          <t>Configurar servidores para usar o Transport Layer Security (TLS) versão 1.2</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -2663,12 +2628,12 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Incluir comunicação para extensões de Servidores habilitados para Arco do Azure no design (firewall/proxy/link privado)</t>
+          <t>Incluir comunicação para extensões de servidores habilitados para Azure Arc no design (firewall/proxy/link privado)</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>Todas as extensões (como análise de logs, etc.) têm requisitos de rede separados, certifique-se de incluir todas no design da rede.</t>
+          <t>Todas as extensões (como análise de log etc.) têm requisitos de rede separados, certifique-se de incluir todos no design da rede.</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2713,7 +2678,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para implementar um modelo de governança para servidores conectados híbridos</t>
+          <t>Usar o Azure Policy para implementar um modelo de governança para servidores conectados híbridos</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2759,7 +2724,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de configurações de máquina para configurações de SO convidado</t>
+          <t>Considere o uso de configurações de máquina para configurações de sistema operacional convidado</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2942,7 +2907,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cofre da Chave do Azure para gerenciamento de certificados em servidores</t>
+          <t>Usar o Azure Key Vault para gerenciamento de certificados em servidores</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2988,12 +2953,12 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Qual é o tempo de vida aceitável do segredo usado por SP's</t>
+          <t>Qual é o tempo de vida aceitável do segredo usado pelos SP's</t>
         </is>
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de segredos de cliente principal de serviço do Azure AD de curta duração.</t>
+          <t>Considere usar segredos de cliente da entidade de serviço do Azure AD de curta duração.</t>
         </is>
       </c>
       <c r="E47" s="21" t="inlineStr">
@@ -3038,7 +3003,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Proteger a chave pública para os Servidores habilitados para Arco do Azure</t>
+          <t>Proteger a chave pública para servidores habilitados para Azure Arc</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
@@ -3092,7 +3057,7 @@
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>O administrador local é necessário para instalar o Connected Machine Agent em sistemas Windows e Linux</t>
+          <t>O administrador local é necessário para instalar o Agente de Máquina Conectada em sistemas Windows e Linux</t>
         </is>
       </c>
       <c r="E49" s="21" t="inlineStr">
@@ -3232,12 +3197,12 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Habilite o Defender for Servers para todos os servidores para proteger cargas de trabalho híbridas contra ameaças</t>
+          <t>Habilitar o Defender para Servidores para todos os servidores para proteger cargas de trabalho híbridas contra ameaças</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>Use o Defender for Endpoint ou outra solução AV e EDR para proteger endpoints</t>
+          <t>Usar o Defender para Ponto de Extremidade ou outra solução AV e EDR para proteger pontos de extremidade</t>
         </is>
       </c>
       <c r="E52" s="21" t="inlineStr">
@@ -3282,7 +3247,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Definir controles para detectar erros de configuração de segurança e controlar a conformidade</t>
+          <t>Defina controles para detectar configurações incorretas de segurança e rastrear a conformidade</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3323,7 +3288,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Use listas de permissões ou bloqueios para controlar quais extensões podem ser instaladas nos servidores habilitados para Arco do Azure</t>
+          <t>Usar listas de permissões ou bloqueios para controlar quais extensões podem ser instaladas nos servidores habilitados para Azure Arc</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -7193,20 +7158,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -7216,121 +7279,6 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7516,7 +7464,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendação entendida, mas não necessária pelos requisitos atuais</t>
+          <t>Recomendação compreendida, mas não necessária pelos requisitos atuais</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -7538,7 +7486,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Não aplicável ao projeto atual</t>
+          <t>Não aplicável para o projeto atual</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
